--- a/testData/Opencart_LoginData.xlsx
+++ b/testData/Opencart_LoginData.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{460AAB08-F176-4FC8-884B-F86963807B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{2ED2EAB7-67B7-4233-9923-26AE0F2B0613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{2E36B14D-650D-4ADE-9625-8A9F1376AA3E}"/>
   </bookViews>
@@ -463,7 +463,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -492,7 +492,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -514,7 +514,7 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
